--- a/output/MOMENTUM/rebalance/rebalance_20250930.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250930.xlsx
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03181276282916715</v>
+        <v>0.03181081357521482</v>
       </c>
       <c r="C6" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01087970219128091</v>
+        <v>-0.01087775293732858</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03250875342166407</v>
+        <v>0.03250946148037044</v>
       </c>
       <c r="C7" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01157569278377783</v>
+        <v>-0.0115764008424842</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03199957072798924</v>
+        <v>0.03199872940358937</v>
       </c>
       <c r="C8" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.011066510090103</v>
+        <v>-0.01106566876570313</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02345280179234524</v>
+        <v>0.02345136751305915</v>
       </c>
       <c r="C25" t="n">
         <v>0.02019788845282185</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00325491333952339</v>
+        <v>-0.003253479060237301</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0262009619448767</v>
+        <v>0.02620110603611463</v>
       </c>
       <c r="C26" t="n">
         <v>0.02016472279033774</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006036239154538967</v>
+        <v>-0.006036383245776891</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02314279332293175</v>
+        <v>0.02314253506778296</v>
       </c>
       <c r="C30" t="n">
         <v>0.01984412138632469</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003298671936607059</v>
+        <v>-0.003298413681458265</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02159316766913628</v>
+        <v>0.02159270511901249</v>
       </c>
       <c r="C33" t="n">
         <v>0.01963407219059201</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001959095478544271</v>
+        <v>-0.001958632928420481</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01890255307966188</v>
+        <v>0.01890285300318048</v>
       </c>
       <c r="C46" t="n">
         <v>0.01900392460339395</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001013715237320675</v>
+        <v>0.0001010716002134669</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01683400568354486</v>
+        <v>0.01683494796891971</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01683400568354486</v>
+        <v>-0.01683494796891971</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01927959355591346</v>
+        <v>0.01928009193290216</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01927959355591346</v>
+        <v>-0.01928009193290216</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01967493086056418</v>
+        <v>0.01967533359680108</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01967493086056418</v>
+        <v>-0.01967533359680108</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01715906605091287</v>
+        <v>0.01715932887239832</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01715906605091287</v>
+        <v>-0.01715932887239832</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01827595308698005</v>
+        <v>0.01827579903345444</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01827595308698005</v>
+        <v>-0.01827579903345444</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01664673510218896</v>
+        <v>0.0166467557832755</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01664673510218896</v>
+        <v>-0.0166467557832755</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01948855786314245</v>
+        <v>0.01948826621251867</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01948855786314245</v>
+        <v>-0.01948826621251867</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0185857280137319</v>
+        <v>0.01858588591975913</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0185857280137319</v>
+        <v>-0.01858588591975913</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01730142051233231</v>
+        <v>0.01730200461408011</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01730142051233231</v>
+        <v>-0.01730200461408011</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0185205670424631</v>
+        <v>0.01852050967270347</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0185205670424631</v>
+        <v>-0.01852050967270347</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02063903118500886</v>
+        <v>0.02063902339550452</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02063903118500886</v>
+        <v>-0.02063902339550452</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01654068321779084</v>
+        <v>0.0165408967813377</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01654068321779084</v>
+        <v>-0.0165408967813377</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01562312356030729</v>
+        <v>0.01562343936096876</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01562312356030729</v>
+        <v>-0.01562343936096876</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01953006770896638</v>
+        <v>0.01953021508317956</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01953006770896638</v>
+        <v>-0.01953021508317956</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01847300015430008</v>
+        <v>0.01847265019895831</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01847300015430008</v>
+        <v>-0.01847265019895831</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02094773900421665</v>
+        <v>0.02094828188845705</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02094773900421665</v>
+        <v>-0.02094828188845705</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01763334058933799</v>
+        <v>0.01763361566052022</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01763334058933799</v>
+        <v>-0.01763361566052022</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01807377284381421</v>
+        <v>0.01807357051711502</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01807377284381421</v>
+        <v>-0.01807357051711502</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01762708574967669</v>
+        <v>0.01762732097862383</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01762708574967669</v>
+        <v>-0.01762732097862383</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01946826496873741</v>
+        <v>0.01946849280597767</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01946826496873741</v>
+        <v>-0.01946849280597767</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01717657089218135</v>
+        <v>0.01717636718465925</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01717657089218135</v>
+        <v>-0.01717636718465925</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.015854125671434</v>
+        <v>0.01585398567351903</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.015854125671434</v>
+        <v>-0.01585398567351903</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02192728283031504</v>
+        <v>0.02192640185937789</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02192728283031504</v>
+        <v>-0.02192640185937789</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01901027040784874</v>
+        <v>0.01900927073106247</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01901027040784874</v>
+        <v>-0.01900927073106247</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01903499278115653</v>
+        <v>0.01903577407095032</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01903499278115653</v>
+        <v>-0.01903577407095032</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01954614729813689</v>
+        <v>0.01954585667455522</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01954614729813689</v>
+        <v>-0.01954585667455522</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0185978278741257</v>
+        <v>0.01859794196078688</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0185978278741257</v>
+        <v>-0.01859794196078688</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01949157128026269</v>
+        <v>0.01949190183366226</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01949157128026269</v>
+        <v>-0.01949190183366226</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02038736334694393</v>
+        <v>0.02038742153845328</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02038736334694393</v>
+        <v>-0.02038742153845328</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01965996392508666</v>
+        <v>0.01966140258479188</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01965996392508666</v>
+        <v>-0.01966140258479188</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0188562385497599</v>
+        <v>0.01885547388965961</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0188562385497599</v>
+        <v>-0.01885547388965961</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01973703509482958</v>
+        <v>0.01973687479916746</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01973703509482958</v>
+        <v>-0.01973687479916746</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01715182451070682</v>
+        <v>0.01715137398921197</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01715182451070682</v>
+        <v>-0.01715137398921197</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02419824757204163</v>
+        <v>0.02419804776842936</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02419824757204163</v>
+        <v>-0.02419804776842936</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01657219917431063</v>
+        <v>0.01657247240173984</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01657219917431063</v>
+        <v>-0.01657247240173984</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02200503010365123</v>
+        <v>0.02200466025075746</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02200503010365123</v>
+        <v>-0.02200466025075746</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02168456528726933</v>
+        <v>0.02168394386813174</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02168456528726933</v>
+        <v>-0.02168394386813174</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01800520964479374</v>
+        <v>0.01800595034164342</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01800520964479374</v>
+        <v>-0.01800595034164342</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01931288755000566</v>
+        <v>0.01931325046108623</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01931288755000566</v>
+        <v>-0.01931325046108623</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02109389279065544</v>
+        <v>0.02109409463445866</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02109389279065544</v>
+        <v>-0.02109409463445866</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01868563641289189</v>
+        <v>0.01868665264724692</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01868563641289189</v>
+        <v>-0.01868665264724692</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01607508545988976</v>
+        <v>0.01607487936086927</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01607508545988976</v>
+        <v>-0.01607487936086927</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250930.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250930.xlsx
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03181081357521482</v>
+        <v>0.03181349250382579</v>
       </c>
       <c r="C6" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01087775293732858</v>
+        <v>-0.01088043186593955</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03250946148037044</v>
+        <v>0.03250949905993767</v>
       </c>
       <c r="C7" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0115764008424842</v>
+        <v>-0.01157643842205143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03199872940358937</v>
+        <v>0.03200030468737441</v>
       </c>
       <c r="C8" t="n">
         <v>0.02093306063788624</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01106566876570313</v>
+        <v>-0.01106724404948817</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02345136751305915</v>
+        <v>0.02345333971843589</v>
       </c>
       <c r="C25" t="n">
         <v>0.02019788845282185</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003253479060237301</v>
+        <v>-0.003255451265614041</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02620110603611463</v>
+        <v>0.02620156290424843</v>
       </c>
       <c r="C26" t="n">
         <v>0.02016472279033774</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006036383245776891</v>
+        <v>-0.006036840113910695</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02314253506778296</v>
+        <v>0.02314332413850122</v>
       </c>
       <c r="C30" t="n">
         <v>0.01984412138632469</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003298413681458265</v>
+        <v>-0.00329920275217653</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02159270511901249</v>
+        <v>0.02159366294165732</v>
       </c>
       <c r="C33" t="n">
         <v>0.01963407219059201</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001958632928420481</v>
+        <v>-0.001959590751065318</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01890285300318048</v>
+        <v>0.01890298663879786</v>
       </c>
       <c r="C46" t="n">
         <v>0.01900392460339395</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001010716002134669</v>
+        <v>0.0001009379645960928</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01683494796891971</v>
+        <v>0.01683439179736389</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01683494796891971</v>
+        <v>-0.01683439179736389</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01928009193290216</v>
+        <v>0.01925709922457812</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01928009193290216</v>
+        <v>-0.01925709922457812</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01967533359680108</v>
+        <v>0.01967538213537284</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01967533359680108</v>
+        <v>-0.01967538213537284</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01715932887239832</v>
+        <v>0.01715945962049154</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01715932887239832</v>
+        <v>-0.01715945962049154</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01827579903345444</v>
+        <v>0.01827637227408118</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01827579903345444</v>
+        <v>-0.01827637227408118</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0166467557832755</v>
+        <v>0.01664711692066912</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0166467557832755</v>
+        <v>-0.01664711692066912</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01948826621251867</v>
+        <v>0.01948900486319971</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01948826621251867</v>
+        <v>-0.01948900486319971</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01858588591975913</v>
+        <v>0.01858615430599758</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01858588591975913</v>
+        <v>-0.01858615430599758</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01730200461408011</v>
+        <v>0.01730181734702958</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01730200461408011</v>
+        <v>-0.01730181734702958</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01852050967270347</v>
+        <v>0.01852099184016165</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01852050967270347</v>
+        <v>-0.01852099184016165</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02063902339550452</v>
+        <v>0.02063950457294171</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02063902339550452</v>
+        <v>-0.02063950457294171</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0165408967813377</v>
+        <v>0.01654106260380786</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0165408967813377</v>
+        <v>-0.01654106260380786</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01562343936096876</v>
+        <v>0.01562348190068194</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01562343936096876</v>
+        <v>-0.01562348190068194</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01953021508317956</v>
+        <v>0.0195305156611158</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01953021508317956</v>
+        <v>-0.0195305156611158</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01847265019895831</v>
+        <v>0.01847342386097885</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01847265019895831</v>
+        <v>-0.01847342386097885</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02094828188845705</v>
+        <v>0.02094821947283828</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02094828188845705</v>
+        <v>-0.02094821947283828</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01763361566052022</v>
+        <v>0.01763374503713285</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01763361566052022</v>
+        <v>-0.01763374503713285</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01807357051711502</v>
+        <v>0.01807418739360043</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01807357051711502</v>
+        <v>-0.01807418739360043</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01762732097862383</v>
+        <v>0.0176274900540072</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01762732097862383</v>
+        <v>-0.0176274900540072</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01946849280597767</v>
+        <v>0.01946871150334592</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01946849280597767</v>
+        <v>-0.01946871150334592</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01717636718465925</v>
+        <v>0.01717696486326049</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01717636718465925</v>
+        <v>-0.01717696486326049</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01585398567351903</v>
+        <v>0.01585448931019744</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01585398567351903</v>
+        <v>-0.01585448931019744</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02192640185937789</v>
+        <v>0.02192778576628131</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02192640185937789</v>
+        <v>-0.02192778576628131</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01900927073106247</v>
+        <v>0.01901070643764736</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01900927073106247</v>
+        <v>-0.01901070643764736</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01903577407095032</v>
+        <v>0.01903542937800081</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01903577407095032</v>
+        <v>-0.01903542937800081</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01954585667455522</v>
+        <v>0.01954659561909644</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01954585667455522</v>
+        <v>-0.01954659561909644</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01859794196078688</v>
+        <v>0.01859825444392027</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01859794196078688</v>
+        <v>-0.01859825444392027</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01949190183366226</v>
+        <v>0.01949201834943729</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01949190183366226</v>
+        <v>-0.01949201834943729</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02038742153845328</v>
+        <v>0.02038783096248774</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02038742153845328</v>
+        <v>-0.02038783096248774</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01966140258479188</v>
+        <v>0.01966041485660563</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01966140258479188</v>
+        <v>-0.01966041485660563</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01885547388965961</v>
+        <v>0.01885667104660089</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01885547388965961</v>
+        <v>-0.01885667104660089</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01973687479916746</v>
+        <v>0.0197374877940944</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01973687479916746</v>
+        <v>-0.0197374877940944</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01715137398921197</v>
+        <v>0.01715221791418963</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01715137398921197</v>
+        <v>-0.01715221791418963</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02419804776842936</v>
+        <v>0.02419880259607809</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02419804776842936</v>
+        <v>-0.02419880259607809</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01657247240173984</v>
+        <v>0.01657257928319461</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01657247240173984</v>
+        <v>-0.01657257928319461</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02200466025075746</v>
+        <v>0.02200553482287084</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02200466025075746</v>
+        <v>-0.02200553482287084</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02168394386813174</v>
+        <v>0.02168506265613535</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02168394386813174</v>
+        <v>-0.02168506265613535</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01800595034164342</v>
+        <v>0.0180056226219775</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01800595034164342</v>
+        <v>-0.0180056226219775</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01931325046108623</v>
+        <v>0.019313330520794</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01931325046108623</v>
+        <v>-0.019313330520794</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02109409463445866</v>
+        <v>0.02109437661153903</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02109409463445866</v>
+        <v>-0.02109437661153903</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01868665264724692</v>
+        <v>0.01868606499671039</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01868665264724692</v>
+        <v>-0.01868606499671039</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01607487936086927</v>
+        <v>0.0160754541667059</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01607487936086927</v>
+        <v>-0.0160754541667059</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
